--- a/course_proj/statistics/report.xlsx
+++ b/course_proj/statistics/report.xlsx
@@ -2,26 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Projects\PythonRTF2023\forproj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Projects\PythonRTF2023 proj\course-python-pt\course_proj\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A219B622-10DC-4CBB-A25E-F61224660991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAC82D3-EE25-4C84-BBAC-142DFE292FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Статистика по годам" sheetId="1" r:id="rId1"/>
     <sheet name="Статистика по годам JAVA" sheetId="2" r:id="rId2"/>
+    <sheet name="Статистика по городам " sheetId="4" r:id="rId3"/>
+    <sheet name="Статистика по городам JAVA" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
   <si>
     <t>Год</t>
   </si>
@@ -31,12 +33,60 @@
   <si>
     <t>Количество вакансий</t>
   </si>
+  <si>
+    <t>Город</t>
+  </si>
+  <si>
+    <t>Воронеж</t>
+  </si>
+  <si>
+    <t>Самара</t>
+  </si>
+  <si>
+    <t>Казань</t>
+  </si>
+  <si>
+    <t>Челябинск</t>
+  </si>
+  <si>
+    <t>Алматы</t>
+  </si>
+  <si>
+    <t>Нижний Новгород</t>
+  </si>
+  <si>
+    <t>Краснодар</t>
+  </si>
+  <si>
+    <t>Екатеринбург</t>
+  </si>
+  <si>
+    <t>Киев</t>
+  </si>
+  <si>
+    <t>Новосибирск</t>
+  </si>
+  <si>
+    <t>Минск</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Процент вакансий</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +98,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,18 +139,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -263,67 +331,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>41084</c:v>
+                  <c:v>41305</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42881</c:v>
+                  <c:v>42968</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>375570</c:v>
+                  <c:v>375739</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41199</c:v>
+                  <c:v>41318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44347</c:v>
+                  <c:v>44449</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48532</c:v>
+                  <c:v>48411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44849</c:v>
+                  <c:v>44812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44650</c:v>
+                  <c:v>44658</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46483</c:v>
+                  <c:v>46449</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47951</c:v>
+                  <c:v>47969</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53520</c:v>
+                  <c:v>53542</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49193</c:v>
+                  <c:v>49077</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>51735</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60891</c:v>
+                  <c:v>60908</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>59507</c:v>
+                  <c:v>59513</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64955</c:v>
+                  <c:v>64822</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>69695</c:v>
+                  <c:v>69725</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72421</c:v>
+                  <c:v>72423</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>103691</c:v>
+                  <c:v>104359</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>91602</c:v>
+                  <c:v>91540</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>98120</c:v>
+                  <c:v>97967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1059,67 +1127,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>37867</c:v>
+                  <c:v>38152</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41473</c:v>
+                  <c:v>41568</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44581</c:v>
+                  <c:v>44556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48088</c:v>
+                  <c:v>48559</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50772</c:v>
+                  <c:v>51421</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54078</c:v>
+                  <c:v>53846</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63409</c:v>
+                  <c:v>61916</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65473</c:v>
+                  <c:v>66410</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71394</c:v>
+                  <c:v>72950</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69923</c:v>
+                  <c:v>71528</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77485</c:v>
+                  <c:v>77812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79260</c:v>
+                  <c:v>81537</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>97480</c:v>
+                  <c:v>102431</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>114621</c:v>
+                  <c:v>122025</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112038</c:v>
+                  <c:v>118067</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>133663</c:v>
+                  <c:v>140228</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>129937</c:v>
+                  <c:v>134166</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>143112</c:v>
+                  <c:v>150771</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>187074</c:v>
+                  <c:v>199969</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>214922</c:v>
+                  <c:v>228734</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>201887</c:v>
+                  <c:v>218513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1463,61 +1531,61 @@
                   <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>280</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>829</c:v>
+                  <c:v>802</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1276</c:v>
+                  <c:v>1227</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1793</c:v>
+                  <c:v>1725</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1383</c:v>
+                  <c:v>1310</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2892</c:v>
+                  <c:v>2712</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4436</c:v>
+                  <c:v>4006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5277</c:v>
+                  <c:v>4450</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7163</c:v>
+                  <c:v>5954</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8925</c:v>
+                  <c:v>7412</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10458</c:v>
+                  <c:v>8262</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13229</c:v>
+                  <c:v>10005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15115</c:v>
+                  <c:v>10878</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17158</c:v>
+                  <c:v>12642</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18740</c:v>
+                  <c:v>14354</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22703</c:v>
+                  <c:v>18802</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30578</c:v>
+                  <c:v>25347</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23589</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17341</c:v>
+                  <c:v>15331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1656,6 +1724,1482 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Статистика по городам '!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Средняя зарплата</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Статистика по городам '!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Москва</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Санкт-Петербург</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Новосибирск</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Минск</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Екатеринбург</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Казань</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Краснодар</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Нижний Новгород</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Челябинск</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Самара</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Статистика по городам '!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>97911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75629</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62565</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60410</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBCD-42E6-8465-774C47811A7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="812016847"/>
+        <c:axId val="740278736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="812016847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740278736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="740278736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="812016847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Статистика по городам '!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Процент вакансий</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Статистика по городам '!$D$2:$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Москва</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Санкт-Петербург</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Минск</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Новосибирск</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Киев</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Екатеринбург</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Нижний Новгород</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Алматы</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Казань</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Воронеж</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Статистика по городам '!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>49.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4900000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF04-4F10-9BF9-6C36F79987C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.5426222490920404E-2"/>
+          <c:y val="0.70370151647710699"/>
+          <c:w val="0.90354291791515706"/>
+          <c:h val="0.26852070574511522"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Статистика по городам JAVA'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Средняя зарплата</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Статистика по городам JAVA'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Киев</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Москва</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Санкт-Петербург</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Казань</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Минск</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Новосибирск</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Нижний Новгород</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Краснодар</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Самара</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Екатеринбург</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Статистика по городам JAVA'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>178132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127843</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127717</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123781</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>116586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A9F-4289-ABE3-AC253D2F503E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="820819951"/>
+        <c:axId val="817437631"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="820819951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="817437631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="817437631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820819951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Статистика по городам JAVA'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Процент вакансий</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Статистика по городам JAVA'!$D$2:$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Москва</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Санкт-Петербург</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Минск</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Киев</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Новосибирск</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Воронеж</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Нижний Новгород</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Казань</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Екатеринбург</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Алматы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Статистика по городам JAVA'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>44.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1997-4DBB-A5D6-E3490DC5C9D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.4741469816272967E-2"/>
+          <c:y val="0.74479002624671919"/>
+          <c:w val="0.90718372703412076"/>
+          <c:h val="0.22743219597550307"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1860,6 +3404,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3892,6 +5596,2050 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4078,6 +7826,160 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>265043</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546651</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3EDB378-2E4A-27F7-AD01-E5CAE68E4B1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>347870</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>162339</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F62295-8E83-48FF-3233-5BB0D4F6B889}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B45A37F-5EDD-3176-B112-04946749DCEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E21D9C6-66E5-C46F-4EC3-ADC5A9773B05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4363,10 +8265,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="A2:C3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4402,7 +8305,7 @@
         <v>2003</v>
       </c>
       <c r="B5" s="2">
-        <v>41084</v>
+        <v>41305</v>
       </c>
       <c r="C5" s="2">
         <v>1983</v>
@@ -4413,7 +8316,7 @@
         <v>2004</v>
       </c>
       <c r="B6" s="2">
-        <v>42881</v>
+        <v>42968</v>
       </c>
       <c r="C6" s="2">
         <v>7833</v>
@@ -4424,7 +8327,7 @@
         <v>2005</v>
       </c>
       <c r="B7" s="2">
-        <v>375570</v>
+        <v>375739</v>
       </c>
       <c r="C7" s="2">
         <v>16022</v>
@@ -4435,7 +8338,7 @@
         <v>2006</v>
       </c>
       <c r="B8" s="2">
-        <v>41199</v>
+        <v>41318</v>
       </c>
       <c r="C8" s="2">
         <v>33321</v>
@@ -4446,7 +8349,7 @@
         <v>2007</v>
       </c>
       <c r="B9" s="2">
-        <v>44347</v>
+        <v>44449</v>
       </c>
       <c r="C9" s="2">
         <v>53562</v>
@@ -4457,7 +8360,7 @@
         <v>2008</v>
       </c>
       <c r="B10" s="2">
-        <v>48532</v>
+        <v>48411</v>
       </c>
       <c r="C10" s="2">
         <v>75070</v>
@@ -4468,7 +8371,7 @@
         <v>2009</v>
       </c>
       <c r="B11" s="2">
-        <v>44849</v>
+        <v>44812</v>
       </c>
       <c r="C11" s="2">
         <v>52889</v>
@@ -4479,7 +8382,7 @@
         <v>2010</v>
       </c>
       <c r="B12" s="2">
-        <v>44650</v>
+        <v>44658</v>
       </c>
       <c r="C12" s="2">
         <v>93494</v>
@@ -4490,7 +8393,7 @@
         <v>2011</v>
       </c>
       <c r="B13" s="2">
-        <v>46483</v>
+        <v>46449</v>
       </c>
       <c r="C13" s="2">
         <v>142458</v>
@@ -4501,7 +8404,7 @@
         <v>2012</v>
       </c>
       <c r="B14" s="2">
-        <v>47951</v>
+        <v>47969</v>
       </c>
       <c r="C14" s="2">
         <v>173897</v>
@@ -4512,7 +8415,7 @@
         <v>2013</v>
       </c>
       <c r="B15" s="2">
-        <v>53520</v>
+        <v>53542</v>
       </c>
       <c r="C15" s="2">
         <v>234019</v>
@@ -4523,7 +8426,7 @@
         <v>2014</v>
       </c>
       <c r="B16" s="2">
-        <v>49193</v>
+        <v>49077</v>
       </c>
       <c r="C16" s="2">
         <v>259571</v>
@@ -4545,7 +8448,7 @@
         <v>2016</v>
       </c>
       <c r="B18" s="2">
-        <v>60891</v>
+        <v>60908</v>
       </c>
       <c r="C18" s="2">
         <v>332460</v>
@@ -4556,7 +8459,7 @@
         <v>2017</v>
       </c>
       <c r="B19" s="2">
-        <v>59507</v>
+        <v>59513</v>
       </c>
       <c r="C19" s="2">
         <v>391464</v>
@@ -4567,7 +8470,7 @@
         <v>2018</v>
       </c>
       <c r="B20" s="2">
-        <v>64955</v>
+        <v>64822</v>
       </c>
       <c r="C20" s="2">
         <v>517670</v>
@@ -4578,7 +8481,7 @@
         <v>2019</v>
       </c>
       <c r="B21" s="2">
-        <v>69695</v>
+        <v>69725</v>
       </c>
       <c r="C21" s="2">
         <v>535956</v>
@@ -4589,7 +8492,7 @@
         <v>2020</v>
       </c>
       <c r="B22" s="2">
-        <v>72421</v>
+        <v>72423</v>
       </c>
       <c r="C22" s="2">
         <v>611885</v>
@@ -4600,7 +8503,7 @@
         <v>2021</v>
       </c>
       <c r="B23" s="2">
-        <v>103691</v>
+        <v>104359</v>
       </c>
       <c r="C23" s="2">
         <v>943151</v>
@@ -4611,7 +8514,7 @@
         <v>2022</v>
       </c>
       <c r="B24" s="2">
-        <v>91602</v>
+        <v>91540</v>
       </c>
       <c r="C24" s="2">
         <v>887542</v>
@@ -4622,7 +8525,7 @@
         <v>2023</v>
       </c>
       <c r="B25" s="2">
-        <v>98120</v>
+        <v>97967</v>
       </c>
       <c r="C25" s="2">
         <v>683702</v>
@@ -4641,30 +8544,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C26"/>
+  <sheetPr codeName="Лист2"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4675,238 +8579,280 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2003</v>
       </c>
       <c r="B5" s="2">
-        <v>37867</v>
+        <v>38152</v>
       </c>
       <c r="C5" s="2">
         <v>21</v>
       </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2004</v>
       </c>
       <c r="B6" s="2">
-        <v>41473</v>
+        <v>41568</v>
       </c>
       <c r="C6" s="2">
         <v>101</v>
       </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2005</v>
       </c>
       <c r="B7" s="2">
-        <v>44581</v>
+        <v>44556</v>
       </c>
       <c r="C7" s="2">
-        <v>280</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2006</v>
       </c>
       <c r="B8" s="2">
-        <v>48088</v>
+        <v>48559</v>
       </c>
       <c r="C8" s="2">
-        <v>829</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2007</v>
       </c>
       <c r="B9" s="2">
-        <v>50772</v>
+        <v>51421</v>
       </c>
       <c r="C9" s="2">
-        <v>1276</v>
-      </c>
+        <v>1227</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2008</v>
       </c>
       <c r="B10" s="2">
-        <v>54078</v>
+        <v>53846</v>
       </c>
       <c r="C10" s="2">
-        <v>1793</v>
-      </c>
+        <v>1725</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2009</v>
       </c>
       <c r="B11" s="2">
-        <v>63409</v>
+        <v>61916</v>
       </c>
       <c r="C11" s="2">
-        <v>1383</v>
-      </c>
+        <v>1310</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2010</v>
       </c>
       <c r="B12" s="2">
-        <v>65473</v>
+        <v>66410</v>
       </c>
       <c r="C12" s="2">
-        <v>2892</v>
-      </c>
+        <v>2712</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2011</v>
       </c>
       <c r="B13" s="2">
-        <v>71394</v>
+        <v>72950</v>
       </c>
       <c r="C13" s="2">
-        <v>4436</v>
-      </c>
+        <v>4006</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2012</v>
       </c>
       <c r="B14" s="2">
-        <v>69923</v>
+        <v>71528</v>
       </c>
       <c r="C14" s="2">
-        <v>5277</v>
-      </c>
+        <v>4450</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2013</v>
       </c>
       <c r="B15" s="2">
-        <v>77485</v>
+        <v>77812</v>
       </c>
       <c r="C15" s="2">
-        <v>7163</v>
-      </c>
+        <v>5954</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2014</v>
       </c>
       <c r="B16" s="2">
-        <v>79260</v>
+        <v>81537</v>
       </c>
       <c r="C16" s="2">
-        <v>8925</v>
-      </c>
+        <v>7412</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2015</v>
       </c>
       <c r="B17" s="2">
-        <v>97480</v>
+        <v>102431</v>
       </c>
       <c r="C17" s="2">
-        <v>10458</v>
-      </c>
+        <v>8262</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2016</v>
       </c>
       <c r="B18" s="2">
-        <v>114621</v>
+        <v>122025</v>
       </c>
       <c r="C18" s="2">
-        <v>13229</v>
-      </c>
+        <v>10005</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2017</v>
       </c>
       <c r="B19" s="2">
-        <v>112038</v>
+        <v>118067</v>
       </c>
       <c r="C19" s="2">
-        <v>15115</v>
-      </c>
+        <v>10878</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2018</v>
       </c>
       <c r="B20" s="2">
-        <v>133663</v>
+        <v>140228</v>
       </c>
       <c r="C20" s="2">
-        <v>17158</v>
-      </c>
+        <v>12642</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2019</v>
       </c>
       <c r="B21" s="2">
-        <v>129937</v>
+        <v>134166</v>
       </c>
       <c r="C21" s="2">
-        <v>18740</v>
-      </c>
+        <v>14354</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2020</v>
       </c>
       <c r="B22" s="2">
-        <v>143112</v>
+        <v>150771</v>
       </c>
       <c r="C22" s="2">
-        <v>22703</v>
-      </c>
+        <v>18802</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2021</v>
       </c>
       <c r="B23" s="2">
-        <v>187074</v>
+        <v>199969</v>
       </c>
       <c r="C23" s="2">
-        <v>30578</v>
-      </c>
+        <v>25347</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2022</v>
       </c>
       <c r="B24" s="2">
-        <v>214922</v>
+        <v>228734</v>
       </c>
       <c r="C24" s="2">
-        <v>23589</v>
-      </c>
+        <v>20000</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2023</v>
       </c>
       <c r="B25" s="2">
-        <v>201887</v>
+        <v>218513</v>
       </c>
       <c r="C25" s="2">
-        <v>17341</v>
-      </c>
+        <v>15331</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -4915,4 +8861,349 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C0B516-CDF1-4087-8108-1B1484704D90}">
+  <sheetPr codeName="Лист3"/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2">
+        <v>97911</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5">
+        <v>49.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>80642</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5">
+        <v>15.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>75629</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
+        <v>75444</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>70499</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>64271</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>62565</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>60410</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>60306</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>59085</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612A777A-D4E9-47E1-8607-7B7D21CBE8E5}">
+  <sheetPr codeName="Лист4"/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>178132</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>167724</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>18.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>138992</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7.4300000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>127843</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>127717</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>125847</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>124650</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>123781</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>121099</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>116586</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>